--- a/biology/Microbiologie/François_Le_Tacon/François_Le_Tacon.xlsx
+++ b/biology/Microbiologie/François_Le_Tacon/François_Le_Tacon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Le_Tacon</t>
+          <t>François_Le_Tacon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Le Tacon (né le 25 décembre 1939 à Saint-Agathon) est un ingénieur agronome, docteur ès sciences Français. Ses domaines scientifiques sont nombreux ; science du sol, écologie forestière, génétique et microbiologie. Il s'est tout particulièrement consacré aux associations symbiotiques des arbres forestiers passant de l'écologie moléculaire à l'écogénomique ou à la physiologie des champignons ectomycorhiziens. Ses recherches sur la truffe sont nombreuses et ont permis de mieux comprendre ce champignon. IL est  directeur de recherche émérite à l'Institut national de la recherche agronomique (INRAE). Il a été président du centre de Nancy pendant dix ans de 1985 à 1995. 
 Associant art et science il s'est également intéressé  aussi à l'art nouveau, notamment à Émile Gallé, et a publié de nombreux  ouvrages, articles et catalogues d'expositions dans ce domaine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Le_Tacon</t>
+          <t>François_Le_Tacon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Agronomie et biologie
-François Le Tacon et Paul Maurice , L'odyssée des champignons , Éditions Quae, 2019, 144 pages  (ISBN 9782759230532).
+          <t>Agronomie et biologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>François Le Tacon et Paul Maurice , L'odyssée des champignons , Éditions Quae, 2019, 144 pages  (ISBN 9782759230532).
 François Le Tacon et François Guillaume (préfacier), Les Truffes - Biologies, écologie et domestication, Éditions AgroParisTech, 2017 Grand Format, 303 pages,  (ISBN 978-2-85710-094-2)
 F Le Tacon; D Mousain, J Garbaye,  Mycorhizes ; pépinières et plantations forestières en France, Revue forestière, 1997
 F. Le Tacon; S. Kilaru, J. Labbé, Y.C. Lin, V. Lequé, The genome of Laccaria bicolor provides insights into mycorrhizal symbiosis, Nature 2008-Nature.com
-La déforestation : essai sur un problème planétaire, Versailles : Éditions Quae, DL 2021  (ISBN 978-2-7592-3287-1)
-Art nouveau
-François Le Tacon et Pierre Valck, Émile Gallé L'amour de la fleur : Les écrits horticoles du maître de l'Art nouveau, Nancy, Éditions Place Stanislas, 2008, 324 p. (ISBN 978-2-35578-013-4)
+La déforestation : essai sur un problème planétaire, Versailles : Éditions Quae, DL 2021  (ISBN 978-2-7592-3287-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>François_Le_Tacon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Le_Tacon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Art nouveau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>François Le Tacon et Pierre Valck, Émile Gallé L'amour de la fleur : Les écrits horticoles du maître de l'Art nouveau, Nancy, Éditions Place Stanislas, 2008, 324 p. (ISBN 978-2-35578-013-4)
 François Le Tacon (dir.), Actes du colloque en hommage à Émile Gallé organisé par l'Académie de Stanislas 28-29 septembre 2004, Association d'historiens de l'Est, Nancy, 2005, 302 p.
 François Le Tacon, Émile Gallé. Maître de l'art nouveau, Nuée Bleue, Strasbourg, 2004, 300 p.  (ISBN 2716506205).
 François Le Tacon et Flavien de Luca, L'Usine d'art Gallé à Nancy, Association des amis du Musée de l'école de Nancy, 2001, 59 p.  (ISBN 2913966055).
